--- a/names.xlsx
+++ b/names.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\stuff\somepy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C3BD8F-9A7D-4C18-825A-7364EA5F5DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDDB08-9F94-46CD-BCFD-118441F89C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>John</t>
+    <t>James</t>
   </si>
   <si>
-    <t>Jane</t>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>IOT</t>
   </si>
 </sst>
 </file>
@@ -69,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,30 +358,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45950</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A57">
+    <sortCondition ref="A2:A57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>